--- a/Modul Quantitative Methoden II_Termine.xlsx
+++ b/Modul Quantitative Methoden II_Termine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden II/VO_Statistik II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5C502A-E216-0147-B178-E58FC192B738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C751CC-ACAA-3547-BE85-B687A08E13DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44320" yWindow="1360" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="7680" windowWidth="31580" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -31,55 +31,54 @@
     <t>Thema</t>
   </si>
   <si>
-    <t>Grundlagen der Datenanalyse</t>
-  </si>
-  <si>
-    <t>Skalenniveaus und statistische Kennwerte (1)</t>
-  </si>
-  <si>
-    <t>Statistische Kennwerte (2)</t>
-  </si>
-  <si>
-    <t>Visualisierung</t>
-  </si>
-  <si>
-    <t>Wahrscheinlichkeitstheorie und Verteilungen</t>
-  </si>
-  <si>
-    <t>Stichprobe, Grundgesamtheit und Stichprobenfehler</t>
-  </si>
-  <si>
-    <t>Hypothesen und Hypothesentests</t>
-  </si>
-  <si>
-    <t>t-Test (1)</t>
-  </si>
-  <si>
-    <t>t-Test (2)</t>
-  </si>
-  <si>
-    <t>Chi^2 Test und Mann-Whitney U-Test</t>
-  </si>
-  <si>
-    <t>Korrelation (1)</t>
-  </si>
-  <si>
-    <t>Korrelation (2)</t>
-  </si>
-  <si>
-    <t>Effektstärke und Stichprobenumfangsplanung</t>
-  </si>
-  <si>
     <t>Klausurvorbereitung</t>
+  </si>
+  <si>
+    <t>evtl. Tausch mit Übung</t>
+  </si>
+  <si>
+    <t>Einfache lineare Regression (1)</t>
+  </si>
+  <si>
+    <t>Einfache lineare Regression (2)</t>
+  </si>
+  <si>
+    <t>Zweifaktorielle ANOVA</t>
+  </si>
+  <si>
+    <t>ANOVA mit Messwiederholung</t>
+  </si>
+  <si>
+    <t>Mixed Designs</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Robuste Tests</t>
+  </si>
+  <si>
+    <t>Regressionsmodelle mit Interaktionen</t>
+  </si>
+  <si>
+    <t>Einfaktorielle ANOVA (1)</t>
+  </si>
+  <si>
+    <t>Einfaktorielle ANOVA (2)</t>
+  </si>
+  <si>
+    <t>Verfahren für Nominaldaten (1)</t>
+  </si>
+  <si>
+    <t>Verfahren für Nominaldaten (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m\.yy"/>
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -136,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -148,9 +147,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -373,8 +369,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -408,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>44846</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>45028</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="6"/>
       <c r="H2" s="1"/>
@@ -423,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>44853</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>45035</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="5"/>
       <c r="H3" s="5"/>
@@ -438,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>44860</v>
+        <v>45042</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -452,10 +448,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>44867</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5"/>
@@ -467,10 +463,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>44874</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>45056</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5"/>
@@ -480,10 +476,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>44881</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>45063</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -492,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>44888</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>45077</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -504,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>44895</v>
+        <v>45084</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -516,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>44909</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>45091</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -527,11 +523,11 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>44930</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
+      <c r="B11" s="4">
+        <v>45098</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -539,11 +535,11 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
-        <v>44937</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="4">
+        <v>45105</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -551,11 +547,11 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <v>44944</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
+      <c r="B13" s="4">
+        <v>45112</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -563,11 +559,11 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>44951</v>
+      <c r="B14" s="4">
+        <v>45119</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -575,125 +571,123 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <v>44958</v>
+      <c r="B15" s="4">
+        <v>45126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -764,7 +758,7 @@
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="9"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -806,31 +800,31 @@
     <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="9"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="9"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="9"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">

--- a/Modul Quantitative Methoden II_Termine.xlsx
+++ b/Modul Quantitative Methoden II_Termine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden II/VO_Statistik II/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden II/VO_Statistik II/Statistik_II_Folien_SS23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C751CC-ACAA-3547-BE85-B687A08E13DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2883BEC-4A54-4548-86B2-1600ABC74D42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="7680" windowWidth="31580" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="1400" windowWidth="31580" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Einfache lineare Regression (2)</t>
   </si>
   <si>
-    <t>Zweifaktorielle ANOVA</t>
-  </si>
-  <si>
     <t>ANOVA mit Messwiederholung</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Verfahren für Nominaldaten (2)</t>
+  </si>
+  <si>
+    <t>Mehrfaktorielle ANOVA</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -407,7 +407,7 @@
         <v>45028</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6"/>
       <c r="H2" s="1"/>
@@ -422,7 +422,7 @@
         <v>45035</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="H3" s="5"/>
@@ -467,7 +467,7 @@
         <v>45056</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -479,7 +479,7 @@
         <v>45063</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -491,7 +491,7 @@
         <v>45077</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -515,7 +515,7 @@
         <v>45091</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -527,7 +527,7 @@
         <v>45098</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -539,7 +539,7 @@
         <v>45105</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -551,7 +551,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -563,7 +563,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6"/>
     </row>
